--- a/Excel/设置单元格格式_字体_颜色_合并单元格/3G话务周报示例.xlsx
+++ b/Excel/设置单元格格式_字体_颜色_合并单元格/3G话务周报示例.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_python\python\Excel\设置单元格格式_字体_颜色_合并单元格\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="话务周报样例" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -93,12 +88,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -122,13 +120,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,63 +180,31 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="5">
+    <dxf/>
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <border>
-        <left style="medium">
-          <color auto="1"/>
-        </left>
-        <right style="medium">
-          <color auto="1"/>
-        </right>
-        <top style="medium">
-          <color auto="1"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      <numFmt numFmtId="165" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="165" formatCode="0.00%"/>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF413B"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF413B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <border>
@@ -289,19 +248,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,7 +294,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,10 +326,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -410,7 +360,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,394 +535,392 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="10" width="10.75" customWidth="1"/>
+    <col min="1" max="10" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.15">
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
-        <v>197</v>
+        <v>352</v>
       </c>
       <c r="C4">
-        <v>27857</v>
+        <v>32919</v>
       </c>
       <c r="D4">
-        <v>32919</v>
+        <v>29040</v>
       </c>
       <c r="E4">
-        <v>8.8048936591358928E-2</v>
+        <v>0.03208763070973741</v>
       </c>
       <c r="F4">
-        <v>4408</v>
+        <v>4062</v>
       </c>
       <c r="G4">
-        <v>4390</v>
+        <v>1531</v>
       </c>
       <c r="H4">
-        <v>5.8600952013742241E-2</v>
+        <v>-0.03222418299515482</v>
       </c>
       <c r="I4">
-        <v>2748</v>
+        <v>5270</v>
       </c>
       <c r="J4">
-        <v>52901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+        <v>118343</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>336</v>
+        <v>194</v>
       </c>
       <c r="C5">
-        <v>35165</v>
+        <v>18658</v>
       </c>
       <c r="D5">
-        <v>21660</v>
+        <v>30156</v>
       </c>
       <c r="E5">
-        <v>1.259408644348362E-2</v>
+        <v>0.03028853972741766</v>
       </c>
       <c r="F5">
-        <v>1330</v>
+        <v>1728</v>
       </c>
       <c r="G5">
-        <v>1822</v>
+        <v>4476</v>
       </c>
       <c r="H5">
-        <v>-7.0577927029473839E-2</v>
+        <v>-0.06079576394467232</v>
       </c>
       <c r="I5">
-        <v>8755</v>
+        <v>6008</v>
       </c>
       <c r="J5">
-        <v>99773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+        <v>149828</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="C6">
-        <v>26488</v>
+        <v>18457</v>
       </c>
       <c r="D6">
-        <v>15759</v>
+        <v>41778</v>
       </c>
       <c r="E6">
-        <v>1.5722216812289289E-2</v>
+        <v>-0.06204875548578588</v>
       </c>
       <c r="F6">
-        <v>2073</v>
+        <v>316</v>
       </c>
       <c r="G6">
-        <v>289</v>
+        <v>3095</v>
       </c>
       <c r="H6">
-        <v>2.1287463608653832E-2</v>
+        <v>-0.03867149309511682</v>
       </c>
       <c r="I6">
-        <v>6844</v>
+        <v>4220</v>
       </c>
       <c r="J6">
-        <v>63379</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+        <v>109927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C7">
-        <v>24289</v>
+        <v>43733</v>
       </c>
       <c r="D7">
-        <v>41489</v>
+        <v>39981</v>
       </c>
       <c r="E7">
-        <v>-5.0671427874113967E-2</v>
+        <v>0.03752122142887929</v>
       </c>
       <c r="F7">
-        <v>2986</v>
+        <v>3141</v>
       </c>
       <c r="G7">
-        <v>2916</v>
+        <v>3676</v>
       </c>
       <c r="H7">
-        <v>4.9471880443918981E-2</v>
+        <v>0.09961174758357721</v>
       </c>
       <c r="I7">
-        <v>4965</v>
+        <v>9103</v>
       </c>
       <c r="J7">
-        <v>76798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+        <v>66590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>188</v>
+        <v>121</v>
       </c>
       <c r="C8">
-        <v>42997</v>
+        <v>32035</v>
       </c>
       <c r="D8">
-        <v>17495</v>
+        <v>21267</v>
       </c>
       <c r="E8">
-        <v>7.5744111146335252E-2</v>
+        <v>-0.008595574931757735</v>
       </c>
       <c r="F8">
-        <v>1912</v>
+        <v>865</v>
       </c>
       <c r="G8">
-        <v>1023</v>
+        <v>4447</v>
       </c>
       <c r="H8">
-        <v>-2.488851223727831E-2</v>
+        <v>-0.01356078897623632</v>
       </c>
       <c r="I8">
-        <v>2754</v>
+        <v>3762</v>
       </c>
       <c r="J8">
-        <v>135048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+        <v>55019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>226</v>
+        <v>306</v>
       </c>
       <c r="C9">
-        <v>22135</v>
+        <v>37698</v>
       </c>
       <c r="D9">
-        <v>32969</v>
+        <v>36653</v>
       </c>
       <c r="E9">
-        <v>-2.283280475054314E-2</v>
+        <v>-0.09785667021125265</v>
       </c>
       <c r="F9">
-        <v>381</v>
+        <v>2788</v>
       </c>
       <c r="G9">
-        <v>4179</v>
+        <v>1647</v>
       </c>
       <c r="H9">
-        <v>-2.205359713868663E-3</v>
+        <v>-0.007726512168449773</v>
       </c>
       <c r="I9">
-        <v>9838</v>
+        <v>9132</v>
       </c>
       <c r="J9">
-        <v>130344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+        <v>143079</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
       <c r="B10">
-        <v>332</v>
+        <v>157</v>
       </c>
       <c r="C10">
-        <v>41470</v>
+        <v>36864</v>
       </c>
       <c r="D10">
-        <v>18403</v>
+        <v>21496</v>
       </c>
       <c r="E10">
-        <v>4.458759171903709E-2</v>
+        <v>0.09711905489221992</v>
       </c>
       <c r="F10">
-        <v>2707</v>
+        <v>908</v>
       </c>
       <c r="G10">
-        <v>1414</v>
+        <v>2646</v>
       </c>
       <c r="H10">
-        <v>5.3863506345687123E-2</v>
+        <v>-0.06786903144218087</v>
       </c>
       <c r="I10">
-        <v>8565</v>
+        <v>2890</v>
       </c>
       <c r="J10">
-        <v>92325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+        <v>79164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>7</v>
       </c>
       <c r="B11">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="C11">
-        <v>31638</v>
+        <v>18319</v>
       </c>
       <c r="D11">
-        <v>21765</v>
+        <v>25874</v>
       </c>
       <c r="E11">
-        <v>3.5843855622090533E-2</v>
+        <v>-0.03314834519419839</v>
       </c>
       <c r="F11">
-        <v>2874</v>
+        <v>1861</v>
       </c>
       <c r="G11">
-        <v>1840</v>
+        <v>1633</v>
       </c>
       <c r="H11">
-        <v>-2.4755195770979139E-2</v>
+        <v>-0.01458304897964194</v>
       </c>
       <c r="I11">
-        <v>7182</v>
+        <v>9300</v>
       </c>
       <c r="J11">
-        <v>44751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+        <v>116465</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C12">
-        <v>35672</v>
+        <v>18765</v>
       </c>
       <c r="D12">
-        <v>20217</v>
+        <v>42324</v>
       </c>
       <c r="E12">
-        <v>1.1066938039816321E-2</v>
+        <v>0.08566699195905525</v>
       </c>
       <c r="F12">
-        <v>4164</v>
+        <v>3409</v>
       </c>
       <c r="G12">
-        <v>3402</v>
+        <v>1420</v>
       </c>
       <c r="H12">
-        <v>4.4905600206516273E-2</v>
+        <v>0.05235423023950103</v>
       </c>
       <c r="I12">
-        <v>7952</v>
+        <v>4480</v>
       </c>
       <c r="J12">
-        <v>107507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+        <v>43992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>292</v>
+        <v>357</v>
       </c>
       <c r="C13">
-        <v>18055</v>
+        <v>16516</v>
       </c>
       <c r="D13">
-        <v>17425</v>
+        <v>40995</v>
       </c>
       <c r="E13">
-        <v>4.0782399101624962E-2</v>
+        <v>-0.03090658670850828</v>
       </c>
       <c r="F13">
-        <v>1493</v>
+        <v>2259</v>
       </c>
       <c r="G13">
-        <v>2861</v>
+        <v>4397</v>
       </c>
       <c r="H13">
-        <v>-7.946715950574311E-2</v>
+        <v>-0.02661591800304451</v>
       </c>
       <c r="I13">
-        <v>9427</v>
+        <v>2264</v>
       </c>
       <c r="J13">
-        <v>103075</v>
+        <v>52200</v>
       </c>
     </row>
   </sheetData>
@@ -982,54 +929,52 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:H2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A2:B2">
-    <cfRule type="containsBlanks" dxfId="6" priority="9">
+    <cfRule type="containsBlanks" dxfId="4" priority="9">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:D13">
-    <cfRule type="notContainsBlanks" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:J13">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
       <formula>LEN(TRIM(A4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E13">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(E3))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:G13">
-    <cfRule type="notContainsBlanks" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(F3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H13">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(H3))&gt;0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:J2">
-    <cfRule type="containsBlanks" dxfId="0" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(I2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:J13">
-    <cfRule type="notContainsBlanks" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(I3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>